--- a/飞鹰客户端测试结果.xlsx
+++ b/飞鹰客户端测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="15825" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>序号</t>
   </si>
@@ -64,12 +64,15 @@
     <t>08-04 上午</t>
   </si>
   <si>
+    <t>运单-所有运单 ？ 待明确</t>
+  </si>
+  <si>
+    <t>功能栏目间距需要调整  操作界面占位置太宽</t>
+  </si>
+  <si>
     <t>运单-所有运单</t>
   </si>
   <si>
-    <t>功能栏目间距需要调整  操作界面占位置太宽</t>
-  </si>
-  <si>
     <t>送达仓促 没有筛选项</t>
   </si>
   <si>
@@ -122,6 +125,9 @@
   </si>
   <si>
     <t>将邮编栏向下调整  让客户先 选择省区市后邮编可自动匹配</t>
+  </si>
+  <si>
+    <t>运单-转运下单 ？ 待明确</t>
   </si>
   <si>
     <t>内容填写完成后 点击保存  提示错误   无法提交 →</t>
@@ -159,12 +165,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,24 +179,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,53 +239,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,9 +254,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,15 +299,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -317,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,187 +362,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,32 +568,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,17 +581,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -585,11 +601,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,6 +621,32 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,10 +673,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,16 +685,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,126 +703,147 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1146,9 +1215,9 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1189,13 +1258,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1203,13 +1272,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1223,7 +1292,7 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1231,13 +1300,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1245,13 +1314,13 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1260,12 +1329,12 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1274,12 +1343,12 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1288,12 +1357,12 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1301,13 +1370,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1316,12 +1385,12 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1330,12 +1399,12 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1344,12 +1413,12 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1357,13 +1426,13 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1372,12 +1441,12 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1389,9 +1458,9 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1399,13 +1468,13 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>29</v>
+      <c r="B17" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1413,13 +1482,13 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1427,13 +1496,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>32</v>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1441,13 +1510,13 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>32</v>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1455,13 +1524,13 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>32</v>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1469,13 +1538,13 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>32</v>
+      <c r="B22" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1484,12 +1553,12 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1497,13 +1566,13 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>24</v>
+      <c r="B24" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1511,13 +1580,13 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>24</v>
+      <c r="B25" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1525,13 +1594,13 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>37</v>
+      <c r="B26" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1539,13 +1608,13 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>37</v>
+      <c r="B27" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1553,13 +1622,13 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>37</v>
+      <c r="B28" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1567,13 +1636,13 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>37</v>
+      <c r="B29" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1581,13 +1650,13 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>37</v>
+      <c r="B30" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1595,13 +1664,13 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>37</v>
+      <c r="B31" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1609,13 +1678,13 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>44</v>
+      <c r="B32" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/飞鹰客户端测试结果.xlsx
+++ b/飞鹰客户端测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15825" windowHeight="8370"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>序号</t>
   </si>
@@ -40,6 +40,9 @@
     <t>包裹-包裹查询</t>
   </si>
   <si>
+    <t>尚未提供</t>
+  </si>
+  <si>
     <t>已入库、未入库后的数字提示有误</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>所有界面</t>
   </si>
   <si>
+    <t>数据返回顺序需修改</t>
+  </si>
+  <si>
     <t>按照提交顺序排序</t>
   </si>
   <si>
@@ -64,18 +70,24 @@
     <t>08-04 上午</t>
   </si>
   <si>
-    <t>运单-所有运单 ？ 待明确</t>
+    <t xml:space="preserve">运单-所有运单 ？ </t>
+  </si>
+  <si>
+    <t>待明确</t>
   </si>
   <si>
     <t>功能栏目间距需要调整  操作界面占位置太宽</t>
   </si>
   <si>
+    <t xml:space="preserve">运单-所有运单 </t>
+  </si>
+  <si>
+    <t>送达仓促 没有筛选项</t>
+  </si>
+  <si>
     <t>运单-所有运单</t>
   </si>
   <si>
-    <t>送达仓促 没有筛选项</t>
-  </si>
-  <si>
     <t>线路名称 没有筛选项</t>
   </si>
   <si>
@@ -85,30 +97,45 @@
     <t>点击追踪后的提示弹窗最好鼠标移走后 自动消失  否则遮挡编辑按钮</t>
   </si>
   <si>
+    <t>接口需修改</t>
+  </si>
+  <si>
     <t>点击删除无法操作  需要弹窗询问确认删除</t>
   </si>
   <si>
     <t>点击编辑后出现的内容弹窗不显示单子内容</t>
   </si>
   <si>
+    <t xml:space="preserve">运单-在线下单 </t>
+  </si>
+  <si>
+    <t>无法选择  收件人以及发件人  有显示但是无法选择</t>
+  </si>
+  <si>
     <t>运单-在线下单</t>
   </si>
   <si>
-    <t>无法选择  收件人以及发件人  有显示但是无法选择</t>
-  </si>
-  <si>
     <t>省事地区 下拉框无选择</t>
   </si>
   <si>
+    <t>运单-在线下单 ？</t>
+  </si>
+  <si>
     <t>费用是否应该改成备注栏  且取消必填</t>
   </si>
   <si>
+    <t>送达方式没有返回对应的id值</t>
+  </si>
+  <si>
     <t>点击未入库筛选  点击编辑   送达仓库应该为默认 但现在选择后无法进行后续操作； 送达方式也是选择后无法后续操作</t>
   </si>
   <si>
     <t>包裹</t>
   </si>
   <si>
+    <t>需后台修改</t>
+  </si>
+  <si>
     <t>新提交包裹 用未入库筛选看不到  只能在  全部的包裹里才能看到</t>
   </si>
   <si>
@@ -127,7 +154,7 @@
     <t>将邮编栏向下调整  让客户先 选择省区市后邮编可自动匹配</t>
   </si>
   <si>
-    <t>运单-转运下单 ？ 待明确</t>
+    <t xml:space="preserve">运单-转运下单 ？ </t>
   </si>
   <si>
     <t>内容填写完成后 点击保存  提示错误   无法提交 →</t>
@@ -149,6 +176,9 @@
   </si>
   <si>
     <t>不显示发货批次</t>
+  </si>
+  <si>
+    <t>无返回值</t>
   </si>
   <si>
     <t>不显示运输状态</t>
@@ -170,7 +200,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +232,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="9"/>
       <name val="宋体"/>
@@ -353,7 +391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +401,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,10 +717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,137 +729,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -834,6 +878,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -843,7 +893,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -911,13 +961,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>3657600</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>5190490</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -937,7 +987,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6229350" y="3771900"/>
+          <a:off x="8286750" y="3771900"/>
           <a:ext cx="1532890" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1212,480 +1262,527 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="103.375" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="2" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="103.375" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" s="4"/>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="C18" s="4"/>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>46</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>32</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:1">
